--- a/test/fixtures/sponsored_products.xlsx
+++ b/test/fixtures/sponsored_products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjmcd/Documents/Development/Private/getlytica/lytica/test/fixtures/internal/worker/app/report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjmcd/Documents/Development/Private/getlytica/lytica-app/test/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA745F00-D85D-8045-83E4-0577E4EC92A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD5400E-ACCE-AD4C-889D-6759371D59D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50100" yWindow="-5040" windowWidth="27240" windowHeight="16440" xr2:uid="{64558C09-2BC4-654A-BE34-30E5D134D783}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22260" xr2:uid="{64558C09-2BC4-654A-BE34-30E5D134D783}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>B01AQKSLMC</t>
   </si>
@@ -116,10 +116,7 @@
     <t>Portfolio name</t>
   </si>
   <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Start Date</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -481,164 +478,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DBF45B-59E4-5B46-B5F4-16ECC57B18B2}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V1" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>43800</v>
       </c>
-      <c r="B2" s="5">
-        <v>43820</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>50293</v>
+      </c>
+      <c r="I2" s="2">
+        <v>47</v>
+      </c>
+      <c r="J2" s="3">
+        <v>9.3452369116974539E-4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.34510638297872331</v>
+      </c>
+      <c r="L2" s="1">
+        <v>16.219999999999995</v>
+      </c>
+      <c r="M2" s="1">
+        <v>86.47999999999999</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.18755781683626269</v>
+      </c>
+      <c r="O2" s="4">
+        <v>5.3316892725030831</v>
+      </c>
+      <c r="P2" s="2">
         <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>50293</v>
-      </c>
-      <c r="J2" s="2">
-        <v>47</v>
-      </c>
-      <c r="K2" s="3">
-        <v>9.3452369116974539E-4</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.34510638297872331</v>
-      </c>
-      <c r="M2" s="1">
-        <v>16.219999999999995</v>
-      </c>
-      <c r="N2" s="1">
-        <v>86.47999999999999</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0.18755781683626269</v>
-      </c>
-      <c r="P2" s="4">
-        <v>5.3316892725030831</v>
       </c>
       <c r="Q2" s="2">
         <v>3</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="3">
+        <v>6.3829787234042548E-2</v>
+      </c>
+      <c r="S2" s="2">
         <v>3</v>
       </c>
-      <c r="S2" s="3">
-        <v>6.3829787234042548E-2</v>
-      </c>
       <c r="T2" s="2">
-        <v>3</v>
-      </c>
-      <c r="U2" s="2">
         <v>1</v>
       </c>
+      <c r="U2" s="1">
+        <v>86.47999999999999</v>
+      </c>
       <c r="V2" s="1">
-        <v>86.47999999999999</v>
-      </c>
-      <c r="W2" s="1">
         <v>1</v>
       </c>
     </row>
